--- a/Resultados/P_5.xlsx
+++ b/Resultados/P_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25" uniqueCount="1">
   <si>
     <t>P</t>
   </si>
@@ -67,7 +67,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,242 +77,242 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.23323475878733482</v>
+        <v>0.48617098985881679</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.27252777627755936</v>
+        <v>0.35318660462097612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.27299985651740422</v>
+        <v>0.67942374695715646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.233585709235967</v>
+        <v>0.4271235985496763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.15630084544373968</v>
+        <v>0.51349941008531463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.15542794974173912</v>
+        <v>0.43088674389012183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.11271419086648429</v>
+        <v>0.66443946666043385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.15618546946254985</v>
+        <v>0.77024509685430342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.14390219568491655</v>
+        <v>0.41593299917834947</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.12389102083744069</v>
+        <v>0.17888124472647582</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1241749773648991</v>
+        <v>0.78809742454536291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.14394641660427776</v>
+        <v>0.38673700938678102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.10145468539509532</v>
+        <v>0.35055529555977905</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.097800013042451728</v>
+        <v>0.24749516729716092</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.10156166224439021</v>
+        <v>0.55436719082227814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.098160658294463785</v>
+        <v>0.64022354508006729</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.096454074352732622</v>
+        <v>0.17324290096582876</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.096850083608897811</v>
+        <v>0.13861274604445079</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1003443512218532</v>
+        <v>0.022417150358168055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.10102181641258567</v>
+        <v>0.45109118575587454</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.12047181121768852</v>
+        <v>0.043547181498775858</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.03606196486044673</v>
+        <v>0.043515157522031181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.064367531360703598</v>
+        <v>0.22868005459220264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.036235915129662073</v>
+        <v>0.23578784375638659</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.15282237800736487</v>
+        <v>0.052636183768105221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.008648827941607368</v>
+        <v>0.094099535400494275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.009250318392694851</v>
+        <v>0.013742654025627897</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.15229932254200934</v>
+        <v>0.046586426407071904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.17933314279640489</v>
+        <v>0.20466510401046026</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.025813156580485441</v>
+        <v>0.16541068751874077</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.034579991094835241</v>
+        <v>0.1381287462610612</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.025861238874420878</v>
+        <v>0.13363470632645305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.21200614429893688</v>
+        <v>1.1811319898586157</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.022714911598559248</v>
+        <v>0.23914463714835424</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.023100009650966188</v>
+        <v>0.1550300123242998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.21167645401001822</v>
+        <v>0.18770675642438145</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.95762092426521783</v>
+        <v>0.28437935039817996</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.028774889341669378</v>
+        <v>0.27904673106471961</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.034734614078188994</v>
+        <v>0.19234718116133726</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.028784098664620006</v>
+        <v>0.22513743709373163</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1.0172085690575143</v>
+        <v>0.80952278237538011</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.21343820080603942</v>
+        <v>0.92398749752227793</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.082484858892136859</v>
+        <v>0.2868021118944688</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.21302245102311701</v>
+        <v>0.090818045028609656</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1.0360056314505783</v>
+        <v>0.66922859528384737</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.26625515734369259</v>
+        <v>0.7454668076687736</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.10587050090912586</v>
+        <v>0.31799651608653295</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.26508800950423006</v>
+        <v>0.069560294799356714</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/P_5.xlsx
+++ b/Resultados/P_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="31" uniqueCount="1">
   <si>
     <t>P</t>
   </si>
@@ -77,242 +77,242 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.48617098985881679</v>
+        <v>0.27839342559570407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.35318660462097612</v>
+        <v>0.10178577690240416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.67942374695715646</v>
+        <v>0.27839336034150558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.4271235985496763</v>
+        <v>0.34704765509615637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.51349941008531463</v>
+        <v>0.28641997741307423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.43088674389012183</v>
+        <v>0.16744350391679477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.66443946666043385</v>
+        <v>0.16744359014267629</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.77024509685430342</v>
+        <v>0.28642002754866092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.41593299917834947</v>
+        <v>0.19941362153571121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.17888124472647582</v>
+        <v>0.093808142990682353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.78809742454536291</v>
+        <v>0.19941371163434085</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.38673700938678102</v>
+        <v>0.18491064720805639</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.35055529555977905</v>
+        <v>0.1666113837770451</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.24749516729716092</v>
+        <v>0.12452285396002569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.55436719082227814</v>
+        <v>0.12452304151906589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.64022354508006729</v>
+        <v>0.16661151442645758</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.17324290096582876</v>
+        <v>0.11408969686166785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.13861274604445079</v>
+        <v>0.12157241586506938</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.022417150358168055</v>
+        <v>0.13467565647966206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.45109118575587454</v>
+        <v>0.12157263523364964</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.043547181498775858</v>
+        <v>0.0509647211011224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.043515157522031181</v>
+        <v>0.17511380931707382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.22868005459220264</v>
+        <v>0.17511410505487598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.23578784375638659</v>
+        <v>0.050965008677629743</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.052636183768105221</v>
+        <v>0.1153898736275588</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.094099535400494275</v>
+        <v>0.14867185817697487</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.013742654025627897</v>
+        <v>0.11539016691111471</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.046586426407071904</v>
+        <v>0.051252754020854663</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.20466510401046026</v>
+        <v>0.11127174992046358</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.16541068751874077</v>
+        <v>0.29748306737179708</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.1381287462610612</v>
+        <v>0.2974833565982215</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.13363470632645305</v>
+        <v>0.1112720071341799</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1.1811319898586157</v>
+        <v>0.33598355932684221</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.23914463714835424</v>
+        <v>1.2086608787092754</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.1550300123242998</v>
+        <v>0.33598385435150246</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.18770675642438145</v>
+        <v>0.12344464037674267</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.28437935039817996</v>
+        <v>0.17890043038705611</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.27904673106471961</v>
+        <v>1.0105454215366092</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.19234718116133726</v>
+        <v>1.0105455553635168</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.22513743709373163</v>
+        <v>0.17890053979253639</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.80952278237538011</v>
+        <v>0.17119263163076173</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.92398749752227793</v>
+        <v>0.98065708901132553</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.2868021118944688</v>
+        <v>0.98065611738976544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.090818045028609656</v>
+        <v>0.17119160582665166</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.66922859528384737</v>
+        <v>0.15814503299575131</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.7454668076687736</v>
+        <v>0.44405676181749365</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.31799651608653295</v>
+        <v>0.44405452383923782</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.069560294799356714</v>
+        <v>0.15814269589286759</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/P_5.xlsx
+++ b/Resultados/P_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="31" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="37" uniqueCount="1">
   <si>
     <t>P</t>
   </si>
@@ -67,7 +67,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,243 +77,219 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.27839342559570407</v>
+        <v>1.9484700714131309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.10178577690240416</v>
+        <v>0.23723294645305409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.27839336034150558</v>
+        <v>0.20374462365458423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.34704765509615637</v>
+        <v>0.17641189444957842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.28641997741307423</v>
+        <v>0.35097408530992003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16744350391679477</v>
+        <v>0.52776925871702951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16744359014267629</v>
+        <v>0.018580702471763407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.28642002754866092</v>
+        <v>0.014354794064822813</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.19941362153571121</v>
+        <v>0.29208857799005583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.093808142990682353</v>
+        <v>0.055048201141296209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.19941371163434085</v>
+        <v>0.0086906458730220074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.18491064720805639</v>
+        <v>0.02940703922771367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1666113837770451</v>
+        <v>0.12365503857167701</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.12452285396002569</v>
+        <v>0.10252794947630264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.12452304151906589</v>
+        <v>0.00072990262060812841</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.16661151442645758</v>
+        <v>-0.0012063363119611701</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.11408969686166785</v>
+        <v>0.014500173431740197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.12157241586506938</v>
+        <v>0.060350318192821606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.13467565647966206</v>
+        <v>0.0037144528387212722</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.12157263523364964</v>
+        <v>0.14185656280594972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0509647211011224</v>
+        <v>0.027342586495918073</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.17511380931707382</v>
+        <v>0.028067334973560676</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.17511410505487598</v>
+        <v>-0.0034813553271525952</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.050965008677629743</v>
+        <v>-0.0064931162103162663</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1153898736275588</v>
+        <v>0.010172590872122819</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.14867185817697487</v>
+        <v>0.0002050695348644483</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.11539016691111471</v>
+        <v>-0.0022505841835848105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.051252754020854663</v>
+        <v>-1.4818463142513699e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.11127174992046358</v>
+        <v>0.0026140708604512198</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.29748306737179708</v>
+        <v>0.0032382653747078426</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.2974833565982215</v>
+        <v>-0.00087039401857195303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.1112720071341799</v>
+        <v>-0.0017759510845025423</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.33598355932684221</v>
+        <v>0.0078038693819840335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1.2086608787092754</v>
+        <v>0.00054137733630459811</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.33598385435150246</v>
+        <v>0.0049828668653651787</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.12344464037674267</v>
+        <v>0.0015601137467036925</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0">
-        <v>0.17890043038705611</v>
-      </c>
+      <c r="A38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>1.0105454215366092</v>
-      </c>
+      <c r="A39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>1.0105455553635168</v>
-      </c>
+      <c r="A40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>0.17890053979253639</v>
-      </c>
+      <c r="A41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>0.17119263163076173</v>
-      </c>
+      <c r="A42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>0.98065708901132553</v>
-      </c>
+      <c r="A43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>0.98065611738976544</v>
-      </c>
+      <c r="A44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>0.17119160582665166</v>
-      </c>
+      <c r="A45" s="0"/>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>0.15814503299575131</v>
-      </c>
+      <c r="A46" s="0"/>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>0.44405676181749365</v>
-      </c>
+      <c r="A47" s="0"/>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>0.44405452383923782</v>
-      </c>
+      <c r="A48" s="0"/>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>0.15814269589286759</v>
-      </c>
+      <c r="A49" s="0"/>
     </row>
   </sheetData>
 </worksheet>
